--- a/docs/audit-SEO.xlsx
+++ b/docs/audit-SEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom85\Documents\Formation OPCL\Projet 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom85\Documents\Formation OPCL\Projet 4\production\TomPascreau_4_24032021\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BFDD9C-A54C-4053-87CC-9BF20D78C07E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5848E1DF-2C06-48EC-96E8-DC96FACCABE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>Formats d'images non optimaux</t>
   </si>
   <si>
-    <t>Privilégier le format .jpg, plus léger que le format .png</t>
-  </si>
-  <si>
     <t>modifier les formats d'images lorsque nécessaire pour diminuer leur taille</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>règles de cache non adéquates et fichier .htaccess inexistant</t>
+  </si>
+  <si>
+    <t>Privilégier le format .webp, plus léger que le format .png et .jpg</t>
   </si>
 </sst>
 </file>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -771,7 +771,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -822,16 +822,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.4">
@@ -839,16 +839,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.4">
@@ -856,16 +856,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.4">
@@ -876,13 +876,13 @@
         <v>38</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.4">
@@ -890,13 +890,13 @@
         <v>37</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>7</v>
@@ -907,16 +907,16 @@
         <v>37</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.4">
@@ -924,118 +924,118 @@
         <v>37</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
